--- a/diccionario/diccionario.xlsx
+++ b/diccionario/diccionario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanruizmondragon/Desktop/examen/diccionario/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanruizmondragon/Documents/PERSONAL/Code/Diplomados/Ciencia de datos/Modulo I/proyecto_final/diccionario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B8BAAA3-CCA8-FF48-876F-035CF03EF064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3485DB1A-A566-A247-BEFC-58B7AEF2DA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="23900" xr2:uid="{A1C20FC6-02D7-C246-9A15-44E8A559F103}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>fare_amount</t>
   </si>
   <si>
-    <t>costo de cada viaje en dólares</t>
-  </si>
-  <si>
     <t>pickup_datetime</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>variable_descripcion</t>
+  </si>
+  <si>
+    <t>precio de cada viaje en dólares</t>
   </si>
 </sst>
 </file>
@@ -446,19 +446,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC00B0BF-B6D1-9B40-847E-FEA45011B147}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -480,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -488,10 +490,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -499,10 +501,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -510,10 +512,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -521,10 +523,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -532,10 +534,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -543,10 +545,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
